--- a/_Out/Server/NFDataCfg/Excel_Ini/Build.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Build.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>PlayerAtt1</t>
+  </si>
+  <si>
+    <t>Func1</t>
   </si>
   <si>
     <t>Build_0_70</t>
@@ -877,7 +880,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -942,13 +945,17 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -957,18 +964,22 @@
         <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -977,18 +988,22 @@
         <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -997,18 +1012,22 @@
         <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1017,18 +1036,22 @@
         <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1037,18 +1060,22 @@
         <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1057,18 +1084,22 @@
         <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1077,18 +1108,22 @@
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1097,18 +1132,22 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1117,18 +1156,22 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1137,18 +1180,22 @@
         <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1157,18 +1204,22 @@
         <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1177,18 +1228,22 @@
         <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1197,18 +1252,22 @@
         <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1217,18 +1276,22 @@
         <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1237,18 +1300,22 @@
         <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1257,18 +1324,22 @@
         <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1277,18 +1348,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1297,18 +1372,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1317,18 +1396,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1337,18 +1420,22 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1357,18 +1444,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1377,18 +1468,22 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1397,18 +1492,22 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1417,18 +1516,22 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1437,18 +1540,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1457,18 +1564,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1477,18 +1588,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1497,18 +1612,22 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1517,18 +1636,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1537,18 +1660,22 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1557,18 +1684,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1577,18 +1708,22 @@
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1597,18 +1732,22 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1617,18 +1756,22 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1637,18 +1780,22 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1657,18 +1804,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1677,18 +1828,22 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1697,18 +1852,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1717,18 +1876,22 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1737,18 +1900,22 @@
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1757,18 +1924,22 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1777,18 +1948,22 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1797,18 +1972,22 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1817,18 +1996,22 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1837,18 +2020,22 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -1857,18 +2044,22 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1877,13 +2068,17 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H49" s="1"/>
     </row>
   </sheetData>
